--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H2">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N2">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q2">
-        <v>2140.227959276697</v>
+        <v>2277.777805474478</v>
       </c>
       <c r="R2">
-        <v>2140.227959276697</v>
+        <v>20500.0002492703</v>
       </c>
       <c r="S2">
-        <v>0.479393431017338</v>
+        <v>0.4549599579516384</v>
       </c>
       <c r="T2">
-        <v>0.479393431017338</v>
+        <v>0.4549599579516383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H3">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N3">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q3">
-        <v>452.1987687242394</v>
+        <v>456.6078198507223</v>
       </c>
       <c r="R3">
-        <v>452.1987687242394</v>
+        <v>4109.4703786565</v>
       </c>
       <c r="S3">
-        <v>0.1012887988407512</v>
+        <v>0.09120216819234502</v>
       </c>
       <c r="T3">
-        <v>0.1012887988407512</v>
+        <v>0.091202168192345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H4">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N4">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q4">
-        <v>22.80160054118414</v>
+        <v>23.01895206425833</v>
       </c>
       <c r="R4">
-        <v>22.80160054118414</v>
+        <v>207.170568578325</v>
       </c>
       <c r="S4">
-        <v>0.005107370674579558</v>
+        <v>0.004597771318201166</v>
       </c>
       <c r="T4">
-        <v>0.005107370674579558</v>
+        <v>0.004597771318201166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H5">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N5">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q5">
-        <v>15.03020043517422</v>
+        <v>154.4841271592667</v>
       </c>
       <c r="R5">
-        <v>15.03020043517422</v>
+        <v>1390.3571444334</v>
       </c>
       <c r="S5">
-        <v>0.003366641074033795</v>
+        <v>0.03085643025744332</v>
       </c>
       <c r="T5">
-        <v>0.003366641074033795</v>
+        <v>0.03085643025744331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H6">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N6">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q6">
-        <v>214.0858608094973</v>
+        <v>250.40244642545</v>
       </c>
       <c r="R6">
-        <v>214.0858608094973</v>
+        <v>2253.62201782905</v>
       </c>
       <c r="S6">
-        <v>0.04795346911571516</v>
+        <v>0.05001501297576262</v>
       </c>
       <c r="T6">
-        <v>0.04795346911571516</v>
+        <v>0.05001501297576262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H7">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N7">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q7">
-        <v>1039.657382709182</v>
+        <v>1102.091206051026</v>
       </c>
       <c r="R7">
-        <v>1039.657382709182</v>
+        <v>9918.820854459234</v>
       </c>
       <c r="S7">
-        <v>0.2328746887074119</v>
+        <v>0.2201300616586693</v>
       </c>
       <c r="T7">
-        <v>0.2328746887074119</v>
+        <v>0.2201300616586692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H8">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N8">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q8">
-        <v>219.6643522566826</v>
+        <v>220.9273712572623</v>
       </c>
       <c r="R8">
-        <v>219.6643522566826</v>
+        <v>1988.34634131536</v>
       </c>
       <c r="S8">
-        <v>0.04920300524254476</v>
+        <v>0.04412770521162946</v>
       </c>
       <c r="T8">
-        <v>0.04920300524254476</v>
+        <v>0.04412770521162945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H9">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N9">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q9">
-        <v>11.07632121030663</v>
+        <v>11.13760287836533</v>
       </c>
       <c r="R9">
-        <v>11.07632121030663</v>
+        <v>100.238425905288</v>
       </c>
       <c r="S9">
-        <v>0.002481004700944814</v>
+        <v>0.002224608267340463</v>
       </c>
       <c r="T9">
-        <v>0.002481004700944814</v>
+        <v>0.002224608267340462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H10">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N10">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q10">
-        <v>7.301212367727699</v>
+        <v>74.74635919601067</v>
       </c>
       <c r="R10">
-        <v>7.301212367727699</v>
+        <v>672.717232764096</v>
       </c>
       <c r="S10">
-        <v>0.001635411420722726</v>
+        <v>0.01492972683951991</v>
       </c>
       <c r="T10">
-        <v>0.001635411420722726</v>
+        <v>0.01492972683951991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H11">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N11">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q11">
-        <v>103.9963732645868</v>
+        <v>121.155950117648</v>
       </c>
       <c r="R11">
-        <v>103.9963732645868</v>
+        <v>1090.403551058832</v>
       </c>
       <c r="S11">
-        <v>0.02329433085694239</v>
+        <v>0.02419950964428412</v>
       </c>
       <c r="T11">
-        <v>0.02329433085694239</v>
+        <v>0.02419950964428412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H12">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N12">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q12">
-        <v>179.3915976951949</v>
+        <v>0.9371338338075557</v>
       </c>
       <c r="R12">
-        <v>179.3915976951949</v>
+        <v>8.434204504268001</v>
       </c>
       <c r="S12">
-        <v>0.04018224000019389</v>
+        <v>0.0001871817209735827</v>
       </c>
       <c r="T12">
-        <v>0.04018224000019389</v>
+        <v>0.0001871817209735826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H13">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N13">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q13">
-        <v>37.90281275675719</v>
+        <v>0.1878596919044445</v>
       </c>
       <c r="R13">
-        <v>37.90281275675719</v>
+        <v>1.69073722714</v>
       </c>
       <c r="S13">
-        <v>0.008489917802405657</v>
+        <v>3.752281602017369E-05</v>
       </c>
       <c r="T13">
-        <v>0.008489917802405657</v>
+        <v>3.752281602017367E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H14">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N14">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q14">
-        <v>1.911205548624373</v>
+        <v>0.009470563259666666</v>
       </c>
       <c r="R14">
-        <v>1.911205548624373</v>
+        <v>0.08523506933700001</v>
       </c>
       <c r="S14">
-        <v>0.0004280942977887523</v>
+        <v>1.891636248294525E-06</v>
       </c>
       <c r="T14">
-        <v>0.0004280942977887523</v>
+        <v>1.891636248294525E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H15">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N15">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q15">
-        <v>1.259815179059778</v>
+        <v>0.06355857098933335</v>
       </c>
       <c r="R15">
-        <v>1.259815179059778</v>
+        <v>0.572027138904</v>
       </c>
       <c r="S15">
-        <v>0.0002821882213618482</v>
+        <v>1.269509462919268E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002821882213618482</v>
+        <v>1.269509462919267E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01809766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054293</v>
+      </c>
+      <c r="I16">
+        <v>0.0002598686748269442</v>
+      </c>
+      <c r="J16">
+        <v>0.0002598686748269441</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.692542</v>
+      </c>
+      <c r="N16">
+        <v>17.077626</v>
+      </c>
+      <c r="O16">
+        <v>0.07918386842663461</v>
+      </c>
+      <c r="P16">
+        <v>0.07918386842663462</v>
+      </c>
+      <c r="Q16">
+        <v>0.103021727602</v>
+      </c>
+      <c r="R16">
+        <v>0.9271955484180001</v>
+      </c>
+      <c r="S16">
+        <v>2.057740695570064E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.057740695570064E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.030675</v>
+      </c>
+      <c r="H17">
+        <v>0.092025</v>
+      </c>
+      <c r="I17">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J17">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>51.78202533333334</v>
+      </c>
+      <c r="N17">
+        <v>155.346076</v>
+      </c>
+      <c r="O17">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="P17">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="Q17">
+        <v>1.5884136271</v>
+      </c>
+      <c r="R17">
+        <v>14.2957226439</v>
+      </c>
+      <c r="S17">
+        <v>0.0003172673801888631</v>
+      </c>
+      <c r="T17">
+        <v>0.000317267380188863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.030675</v>
+      </c>
+      <c r="H18">
+        <v>0.092025</v>
+      </c>
+      <c r="I18">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J18">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.38032666666667</v>
+      </c>
+      <c r="N18">
+        <v>31.14098</v>
+      </c>
+      <c r="O18">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="P18">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="Q18">
+        <v>0.3184165205</v>
+      </c>
+      <c r="R18">
+        <v>2.8657486845</v>
+      </c>
+      <c r="S18">
+        <v>6.360004317787711E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.36000431778771E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.030675</v>
+      </c>
+      <c r="H19">
+        <v>0.092025</v>
+      </c>
+      <c r="I19">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J19">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.523303</v>
+      </c>
+      <c r="N19">
+        <v>1.569909</v>
+      </c>
+      <c r="O19">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="P19">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="Q19">
+        <v>0.016052319525</v>
+      </c>
+      <c r="R19">
+        <v>0.144470875725</v>
+      </c>
+      <c r="S19">
+        <v>3.206266475407578E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.206266475407578E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.030675</v>
+      </c>
+      <c r="H20">
+        <v>0.092025</v>
+      </c>
+      <c r="I20">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J20">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.511976</v>
+      </c>
+      <c r="N20">
+        <v>10.535928</v>
+      </c>
+      <c r="O20">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="P20">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="Q20">
+        <v>0.1077298638</v>
+      </c>
+      <c r="R20">
+        <v>0.9695687742</v>
+      </c>
+      <c r="S20">
+        <v>2.151780309158558E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.151780309158557E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.030675</v>
+      </c>
+      <c r="H21">
+        <v>0.092025</v>
+      </c>
+      <c r="I21">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J21">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.692542</v>
+      </c>
+      <c r="N21">
+        <v>17.077626</v>
+      </c>
+      <c r="O21">
+        <v>0.07918386842663461</v>
+      </c>
+      <c r="P21">
+        <v>0.07918386842663462</v>
+      </c>
+      <c r="Q21">
+        <v>0.17461872585</v>
+      </c>
+      <c r="R21">
+        <v>1.57156853265</v>
+      </c>
+      <c r="S21">
+        <v>3.487808511407274E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.487808511407274E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H22">
+        <v>12.965183</v>
+      </c>
+      <c r="I22">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J22">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>51.78202533333334</v>
+      </c>
+      <c r="N22">
+        <v>155.346076</v>
+      </c>
+      <c r="O22">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="P22">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="Q22">
+        <v>223.7878115191009</v>
+      </c>
+      <c r="R22">
+        <v>2014.090303671908</v>
+      </c>
+      <c r="S22">
+        <v>0.0446990453037673</v>
+      </c>
+      <c r="T22">
+        <v>0.04469904530376728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H23">
+        <v>12.965183</v>
+      </c>
+      <c r="I23">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J23">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.38032666666667</v>
+      </c>
+      <c r="N23">
+        <v>31.14098</v>
+      </c>
+      <c r="O23">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="P23">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="Q23">
+        <v>44.86094494437111</v>
+      </c>
+      <c r="R23">
+        <v>403.74850449934</v>
+      </c>
+      <c r="S23">
+        <v>0.008960458555925874</v>
+      </c>
+      <c r="T23">
+        <v>0.008960458555925871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="H16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="I16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="J16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.90650227093117</v>
-      </c>
-      <c r="N16">
-        <v>4.90650227093117</v>
-      </c>
-      <c r="O16">
-        <v>0.07526720799992327</v>
-      </c>
-      <c r="P16">
-        <v>0.07526720799992327</v>
-      </c>
-      <c r="Q16">
-        <v>17.9444457998512</v>
-      </c>
-      <c r="R16">
-        <v>17.9444457998512</v>
-      </c>
-      <c r="S16">
-        <v>0.004019408027265738</v>
-      </c>
-      <c r="T16">
-        <v>0.004019408027265738</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H24">
+        <v>12.965183</v>
+      </c>
+      <c r="I24">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J24">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.523303</v>
+      </c>
+      <c r="N24">
+        <v>1.569909</v>
+      </c>
+      <c r="O24">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="P24">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="Q24">
+        <v>2.261573053149667</v>
+      </c>
+      <c r="R24">
+        <v>20.354157478347</v>
+      </c>
+      <c r="S24">
+        <v>0.0004517232447750531</v>
+      </c>
+      <c r="T24">
+        <v>0.0004517232447750529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H25">
+        <v>12.965183</v>
+      </c>
+      <c r="I25">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J25">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.511976</v>
+      </c>
+      <c r="N25">
+        <v>10.535928</v>
+      </c>
+      <c r="O25">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="P25">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="Q25">
+        <v>15.17780384386933</v>
+      </c>
+      <c r="R25">
+        <v>136.600234594824</v>
+      </c>
+      <c r="S25">
+        <v>0.003031592011305328</v>
+      </c>
+      <c r="T25">
+        <v>0.003031592011305327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H26">
+        <v>12.965183</v>
+      </c>
+      <c r="I26">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J26">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.692542</v>
+      </c>
+      <c r="N26">
+        <v>17.077626</v>
+      </c>
+      <c r="O26">
+        <v>0.07918386842663461</v>
+      </c>
+      <c r="P26">
+        <v>0.07918386842663462</v>
+      </c>
+      <c r="Q26">
+        <v>24.601616255062</v>
+      </c>
+      <c r="R26">
+        <v>221.414546295558</v>
+      </c>
+      <c r="S26">
+        <v>0.00491389031451811</v>
+      </c>
+      <c r="T26">
+        <v>0.004913890314518109</v>
       </c>
     </row>
   </sheetData>
